--- a/text.xlsx
+++ b/text.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="2">
   <si>
-    <t>no _text</t>
+    <t>workday</t>
   </si>
   <si>
-    <t>text</t>
+    <t>weenkend</t>
   </si>
 </sst>
 </file>
@@ -35,12 +35,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,164 +358,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B32"/>
+  <dimension ref="B1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+      <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/text.xlsx
+++ b/text.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="3">
   <si>
-    <t>workday</t>
+    <t>routa</t>
   </si>
   <si>
-    <t>weenkend</t>
+    <t>km</t>
+  </si>
+  <si>
+    <t>inte</t>
   </si>
 </sst>
 </file>
@@ -358,165 +361,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:B31"/>
+  <dimension ref="B1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
